--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,10 +49,7 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
-    <t>2020-12-19</t>
-  </si>
-  <si>
-    <t>01 Mar -- 07 Mar 2020</t>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>08 Mar -- 14 Mar 2020</t>
@@ -182,6 +179,12 @@
   </si>
   <si>
     <t>27 Dec -- 02 Jan 2021</t>
+  </si>
+  <si>
+    <t>03 Jan -- 09 Jan 2021</t>
+  </si>
+  <si>
+    <t>10 Jan -- 16 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,25 +594,25 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>2.29</v>
+        <v>5.86</v>
       </c>
       <c r="D2">
-        <v>2.29</v>
+        <v>5.86</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>1.15</v>
+        <v>4.82</v>
       </c>
       <c r="H2">
-        <v>51.18</v>
+        <v>42.09</v>
       </c>
       <c r="I2">
-        <v>1334.72</v>
+        <v>1098.93</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,16 +623,16 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>5.86</v>
+        <v>58.29</v>
       </c>
       <c r="D3">
-        <v>5.86</v>
+        <v>58.29</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -640,16 +643,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>58.29</v>
+        <v>347.43</v>
       </c>
       <c r="D4">
-        <v>58.29</v>
+        <v>347.43</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -660,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>347.43</v>
+        <v>1154.86</v>
       </c>
       <c r="D5">
-        <v>347.43</v>
+        <v>1154.86</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -680,16 +683,16 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1154.86</v>
+        <v>2087.86</v>
       </c>
       <c r="D6">
-        <v>1154.86</v>
+        <v>2087.86</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,16 +703,16 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>2087.86</v>
+        <v>2148.43</v>
       </c>
       <c r="D7">
-        <v>2087.86</v>
+        <v>2148.43</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -720,16 +723,16 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>2148.43</v>
+        <v>2202.86</v>
       </c>
       <c r="D8">
-        <v>2148.43</v>
+        <v>2202.86</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,16 +743,16 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>2202.86</v>
+        <v>1933.57</v>
       </c>
       <c r="D9">
-        <v>2202.86</v>
+        <v>1933.57</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,16 +763,16 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>1933.57</v>
+        <v>1753.71</v>
       </c>
       <c r="D10">
-        <v>1933.57</v>
+        <v>1753.71</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,16 +783,16 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>1753.71</v>
+        <v>1426.86</v>
       </c>
       <c r="D11">
-        <v>1753.71</v>
+        <v>1426.86</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,16 +803,16 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>1426.86</v>
+        <v>1220.57</v>
       </c>
       <c r="D12">
-        <v>1426.86</v>
+        <v>1220.57</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -820,16 +823,16 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>1220.57</v>
+        <v>946.14</v>
       </c>
       <c r="D13">
-        <v>1220.57</v>
+        <v>946.14</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -840,16 +843,16 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>946.14</v>
+        <v>873.71</v>
       </c>
       <c r="D14">
-        <v>946.14</v>
+        <v>873.71</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,16 +863,16 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>873.71</v>
+        <v>744.29</v>
       </c>
       <c r="D15">
-        <v>873.71</v>
+        <v>744.29</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -880,16 +883,16 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>744.29</v>
+        <v>602.14</v>
       </c>
       <c r="D16">
-        <v>744.29</v>
+        <v>602.14</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -900,16 +903,16 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>602.14</v>
+        <v>565.86</v>
       </c>
       <c r="D17">
-        <v>602.14</v>
+        <v>565.86</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -920,16 +923,16 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>565.86</v>
+        <v>524.14</v>
       </c>
       <c r="D18">
-        <v>565.86</v>
+        <v>524.14</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -940,16 +943,16 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>524.14</v>
+        <v>748.86</v>
       </c>
       <c r="D19">
-        <v>524.14</v>
+        <v>748.86</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -960,16 +963,16 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>748.86</v>
+        <v>786.29</v>
       </c>
       <c r="D20">
-        <v>748.86</v>
+        <v>786.29</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -980,16 +983,16 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>786.29</v>
+        <v>922</v>
       </c>
       <c r="D21">
-        <v>521.65</v>
+        <v>922</v>
       </c>
       <c r="E21">
-        <v>264.63</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1000,16 +1003,16 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>922</v>
+        <v>1140.43</v>
       </c>
       <c r="D22">
-        <v>844.4400000000001</v>
+        <v>1140.43</v>
       </c>
       <c r="E22">
-        <v>77.56</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1020,16 +1023,16 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>1140.43</v>
+        <v>1038.43</v>
       </c>
       <c r="D23">
-        <v>788.6</v>
+        <v>1038.43</v>
       </c>
       <c r="E23">
-        <v>351.83</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1040,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>1038.43</v>
+        <v>1007.43</v>
       </c>
       <c r="D24">
-        <v>836.79</v>
+        <v>1007.43</v>
       </c>
       <c r="E24">
-        <v>201.64</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1060,16 +1063,16 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>1007.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D25">
-        <v>1213.97</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E25">
-        <v>206.55</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1080,16 +1083,16 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>973.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D26">
-        <v>867.3</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E26">
-        <v>106.13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1100,16 +1103,16 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>894.5700000000001</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D27">
-        <v>827.96</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E27">
-        <v>66.61</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1120,16 +1123,16 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>846.4299999999999</v>
+        <v>733.14</v>
       </c>
       <c r="D28">
-        <v>971.42</v>
+        <v>733.14</v>
       </c>
       <c r="E28">
-        <v>124.99</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1140,16 +1143,16 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>733.14</v>
+        <v>797.86</v>
       </c>
       <c r="D29">
-        <v>906.53</v>
+        <v>797.86</v>
       </c>
       <c r="E29">
-        <v>173.39</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1160,16 +1163,16 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>797.86</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D30">
-        <v>863.84</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E30">
-        <v>65.98</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1180,16 +1183,16 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>766.4299999999999</v>
+        <v>702.14</v>
       </c>
       <c r="D31">
-        <v>922</v>
+        <v>702.14</v>
       </c>
       <c r="E31">
-        <v>155.57</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1200,19 +1203,19 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>702.14</v>
+        <v>714.29</v>
       </c>
       <c r="D32">
-        <v>930.48</v>
+        <v>714.29</v>
       </c>
       <c r="E32">
-        <v>228.34</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1220,19 +1223,19 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>714.29</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D33">
-        <v>918.34</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="E33">
-        <v>204.05</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1240,19 +1243,19 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>717.4299999999999</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D34">
-        <v>1007.43</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="E34">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1260,19 +1263,19 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>821.5700000000001</v>
+        <v>819</v>
       </c>
       <c r="D35">
-        <v>918.71</v>
+        <v>819</v>
       </c>
       <c r="E35">
-        <v>97.14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1280,19 +1283,19 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>819</v>
+        <v>994.86</v>
       </c>
       <c r="D36">
-        <v>979.73</v>
+        <v>994.86</v>
       </c>
       <c r="E36">
-        <v>160.73</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1300,19 +1303,19 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>994.86</v>
+        <v>1087.29</v>
       </c>
       <c r="D37">
-        <v>729.71</v>
+        <v>1087.29</v>
       </c>
       <c r="E37">
-        <v>265.14</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1320,19 +1323,19 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>1087.29</v>
+        <v>1466.29</v>
       </c>
       <c r="D38">
-        <v>837.8099999999999</v>
+        <v>1466.29</v>
       </c>
       <c r="E38">
-        <v>249.48</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1340,19 +1343,19 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>1466.29</v>
+        <v>1447.14</v>
       </c>
       <c r="D39">
-        <v>949.87</v>
+        <v>1447.14</v>
       </c>
       <c r="E39">
-        <v>516.42</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1360,19 +1363,19 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>1447.14</v>
+        <v>2150.29</v>
       </c>
       <c r="D40">
-        <v>939.61</v>
+        <v>2150.29</v>
       </c>
       <c r="E40">
-        <v>507.53</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1380,19 +1383,19 @@
         <v>51</v>
       </c>
       <c r="C41">
-        <v>2150.29</v>
+        <v>2383.14</v>
       </c>
       <c r="D41">
-        <v>791.02</v>
+        <v>2383.14</v>
       </c>
       <c r="E41">
-        <v>1359.26</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1400,19 +1403,19 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>2383.14</v>
+        <v>2607.86</v>
       </c>
       <c r="D42">
-        <v>981.45</v>
+        <v>2607.86</v>
       </c>
       <c r="E42">
-        <v>1401.69</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1420,19 +1423,19 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>2607.86</v>
+        <v>2250</v>
       </c>
       <c r="D43">
-        <v>1273.14</v>
+        <v>2250</v>
       </c>
       <c r="E43">
-        <v>1334.72</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1440,48 +1443,44 @@
         <v>54</v>
       </c>
       <c r="C44">
-        <v>2250</v>
+        <v>2611</v>
       </c>
       <c r="D44">
-        <v>1739.49</v>
+        <v>2164.65</v>
       </c>
       <c r="E44">
-        <v>510.51</v>
+        <v>446.35</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44">
-        <v>510.51</v>
-      </c>
-      <c r="K44">
-        <v>22.69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="C45">
-        <v>2611</v>
-      </c>
       <c r="D45">
-        <v>2026.92</v>
-      </c>
-      <c r="E45">
-        <v>584.08</v>
+        <v>2127.96</v>
       </c>
       <c r="F45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
         <v>56</v>
       </c>
-      <c r="J45">
-        <v>547.29</v>
-      </c>
-      <c r="K45">
-        <v>22.53</v>
+      <c r="D46">
+        <v>2178.36</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,9 +49,21 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
     <t>2021-01-02</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>01 Mar -- 07 Mar 2020</t>
+  </si>
+  <si>
     <t>08 Mar -- 14 Mar 2020</t>
   </si>
   <si>
@@ -185,6 +197,9 @@
   </si>
   <si>
     <t>10 Jan -- 16 Jan 2021</t>
+  </si>
+  <si>
+    <t>17 Jan -- 23 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -545,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,28 +606,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>5.86</v>
+        <v>2.29</v>
       </c>
       <c r="D2">
-        <v>5.86</v>
+        <v>2.29</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G2">
-        <v>4.82</v>
+        <v>1.15</v>
       </c>
       <c r="H2">
-        <v>42.09</v>
+        <v>51.18</v>
       </c>
       <c r="I2">
-        <v>1098.93</v>
+        <v>1334.72</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,19 +635,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>58.29</v>
+        <v>5.86</v>
       </c>
       <c r="D3">
-        <v>58.29</v>
+        <v>5.86</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -640,19 +655,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>347.43</v>
+        <v>58.29</v>
       </c>
       <c r="D4">
-        <v>347.43</v>
+        <v>58.29</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -660,19 +675,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>1154.86</v>
+        <v>347.43</v>
       </c>
       <c r="D5">
-        <v>1154.86</v>
+        <v>347.43</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -680,19 +695,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>2087.86</v>
+        <v>1154.86</v>
       </c>
       <c r="D6">
-        <v>2087.86</v>
+        <v>1154.86</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,19 +715,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>2148.43</v>
+        <v>2087.86</v>
       </c>
       <c r="D7">
-        <v>2148.43</v>
+        <v>2087.86</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -720,19 +735,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>2202.86</v>
+        <v>2148.43</v>
       </c>
       <c r="D8">
-        <v>2202.86</v>
+        <v>2148.43</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,19 +755,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>1933.57</v>
+        <v>2202.86</v>
       </c>
       <c r="D9">
-        <v>1933.57</v>
+        <v>2202.86</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,19 +775,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>1753.71</v>
+        <v>1933.57</v>
       </c>
       <c r="D10">
-        <v>1753.71</v>
+        <v>1933.57</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,19 +795,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>1426.86</v>
+        <v>1753.71</v>
       </c>
       <c r="D11">
-        <v>1426.86</v>
+        <v>1753.71</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,19 +815,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>1220.57</v>
+        <v>1426.86</v>
       </c>
       <c r="D12">
-        <v>1220.57</v>
+        <v>1426.86</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -820,19 +835,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>946.14</v>
+        <v>1220.57</v>
       </c>
       <c r="D13">
-        <v>946.14</v>
+        <v>1220.57</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -840,19 +855,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>873.71</v>
+        <v>946.14</v>
       </c>
       <c r="D14">
-        <v>873.71</v>
+        <v>946.14</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,19 +875,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>744.29</v>
+        <v>873.71</v>
       </c>
       <c r="D15">
-        <v>744.29</v>
+        <v>873.71</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -880,19 +895,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>602.14</v>
+        <v>744.29</v>
       </c>
       <c r="D16">
-        <v>602.14</v>
+        <v>744.29</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -900,19 +915,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>565.86</v>
+        <v>602.14</v>
       </c>
       <c r="D17">
-        <v>565.86</v>
+        <v>602.14</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -920,19 +935,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>524.14</v>
+        <v>565.86</v>
       </c>
       <c r="D18">
-        <v>524.14</v>
+        <v>565.86</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -940,19 +955,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>748.86</v>
+        <v>524.14</v>
       </c>
       <c r="D19">
-        <v>748.86</v>
+        <v>524.14</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -960,19 +975,19 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>786.29</v>
+        <v>748.86</v>
       </c>
       <c r="D20">
-        <v>786.29</v>
+        <v>748.86</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -980,19 +995,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>922</v>
+        <v>786.29</v>
       </c>
       <c r="D21">
-        <v>922</v>
+        <v>521.65</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>264.63</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1000,19 +1015,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>1140.43</v>
+        <v>922</v>
       </c>
       <c r="D22">
-        <v>1140.43</v>
+        <v>844.4400000000001</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>77.56</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1020,19 +1035,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23">
-        <v>1038.43</v>
+        <v>1140.43</v>
       </c>
       <c r="D23">
-        <v>1038.43</v>
+        <v>788.6</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>351.83</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1040,19 +1055,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>1007.43</v>
+        <v>1038.43</v>
       </c>
       <c r="D24">
-        <v>1007.43</v>
+        <v>836.79</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>201.64</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1060,19 +1075,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>973.4299999999999</v>
+        <v>1007.43</v>
       </c>
       <c r="D25">
-        <v>973.4299999999999</v>
+        <v>1213.97</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>206.55</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1080,19 +1095,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26">
-        <v>894.5700000000001</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D26">
-        <v>894.5700000000001</v>
+        <v>867.3</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>106.13</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1100,19 +1115,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>846.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D27">
-        <v>846.4299999999999</v>
+        <v>827.96</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>66.61</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1120,19 +1135,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>733.14</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D28">
-        <v>733.14</v>
+        <v>971.42</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>124.99</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1140,19 +1155,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>797.86</v>
+        <v>733.14</v>
       </c>
       <c r="D29">
-        <v>797.86</v>
+        <v>906.53</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>173.39</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1160,19 +1175,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>766.4299999999999</v>
+        <v>797.86</v>
       </c>
       <c r="D30">
-        <v>766.4299999999999</v>
+        <v>863.84</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>65.98</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1180,19 +1195,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>702.14</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D31">
-        <v>702.14</v>
+        <v>922</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>155.57</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1200,287 +1215,462 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32">
+        <v>702.14</v>
+      </c>
+      <c r="D32">
+        <v>930.48</v>
+      </c>
+      <c r="E32">
+        <v>228.34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
         <v>714.29</v>
       </c>
-      <c r="D32">
-        <v>714.29</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D33">
+        <v>918.34</v>
+      </c>
+      <c r="E33">
+        <v>204.05</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>717.4299999999999</v>
+      </c>
+      <c r="D34">
+        <v>1007.43</v>
+      </c>
+      <c r="E34">
+        <v>290</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>821.5700000000001</v>
+      </c>
+      <c r="D35">
+        <v>918.71</v>
+      </c>
+      <c r="E35">
+        <v>97.14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>819</v>
+      </c>
+      <c r="D36">
+        <v>979.73</v>
+      </c>
+      <c r="E36">
+        <v>160.73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>994.86</v>
+      </c>
+      <c r="D37">
+        <v>729.71</v>
+      </c>
+      <c r="E37">
+        <v>265.14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>1087.29</v>
+      </c>
+      <c r="D38">
+        <v>837.8099999999999</v>
+      </c>
+      <c r="E38">
+        <v>249.48</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>1466.29</v>
+      </c>
+      <c r="D39">
+        <v>949.87</v>
+      </c>
+      <c r="E39">
+        <v>516.42</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>1447.14</v>
+      </c>
+      <c r="D40">
+        <v>939.61</v>
+      </c>
+      <c r="E40">
+        <v>507.53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>2150.29</v>
+      </c>
+      <c r="D41">
+        <v>791.02</v>
+      </c>
+      <c r="E41">
+        <v>1359.26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>2383.14</v>
+      </c>
+      <c r="D42">
+        <v>981.45</v>
+      </c>
+      <c r="E42">
+        <v>1401.69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>2607.86</v>
+      </c>
+      <c r="D43">
+        <v>1273.14</v>
+      </c>
+      <c r="E43">
+        <v>1334.72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>717.4299999999999</v>
-      </c>
-      <c r="D33">
-        <v>717.4299999999999</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34">
-        <v>821.5700000000001</v>
-      </c>
-      <c r="D34">
-        <v>821.5700000000001</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <v>819</v>
-      </c>
-      <c r="D35">
-        <v>819</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36">
-        <v>994.86</v>
-      </c>
-      <c r="D36">
-        <v>994.86</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>1087.29</v>
-      </c>
-      <c r="D37">
-        <v>1087.29</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38">
-        <v>1466.29</v>
-      </c>
-      <c r="D38">
-        <v>1466.29</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39">
-        <v>1447.14</v>
-      </c>
-      <c r="D39">
-        <v>1447.14</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40">
-        <v>2150.29</v>
-      </c>
-      <c r="D40">
-        <v>2150.29</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41">
-        <v>2383.14</v>
-      </c>
-      <c r="D41">
-        <v>2383.14</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42">
-        <v>2607.86</v>
-      </c>
-      <c r="D42">
-        <v>2607.86</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43">
+      <c r="C44">
         <v>2250</v>
       </c>
-      <c r="D43">
-        <v>2250</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44">
-        <v>2611</v>
-      </c>
       <c r="D44">
-        <v>2164.65</v>
+        <v>1739.49</v>
       </c>
       <c r="E44">
-        <v>446.35</v>
+        <v>510.51</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J44">
+        <v>510.51</v>
+      </c>
+      <c r="K44">
+        <v>22.69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <v>2604.14</v>
       </c>
       <c r="D45">
-        <v>2127.96</v>
+        <v>2026.92</v>
+      </c>
+      <c r="E45">
+        <v>577.22</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J45">
+        <v>543.87</v>
+      </c>
+      <c r="K45">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>2604.14</v>
       </c>
       <c r="D46">
-        <v>2178.36</v>
+        <v>1968.62</v>
+      </c>
+      <c r="E46">
+        <v>635.52</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="G46">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H46">
+        <v>40.56</v>
+      </c>
+      <c r="I46">
+        <v>909.96</v>
+      </c>
+      <c r="J46">
+        <v>574.42</v>
+      </c>
+      <c r="K46">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>3174.14</v>
+      </c>
+      <c r="D47">
+        <v>2020.07</v>
+      </c>
+      <c r="E47">
+        <v>1154.07</v>
+      </c>
+      <c r="F47" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47">
+        <v>719.33</v>
+      </c>
+      <c r="K47">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>3174.14</v>
+      </c>
+      <c r="D48">
+        <v>2126.56</v>
+      </c>
+      <c r="E48">
+        <v>1047.58</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48">
+        <v>4.82</v>
+      </c>
+      <c r="H48">
+        <v>42.09</v>
+      </c>
+      <c r="I48">
+        <v>1098.93</v>
+      </c>
+      <c r="J48">
+        <v>784.98</v>
+      </c>
+      <c r="K48">
+        <v>27.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>3333.57</v>
+      </c>
+      <c r="D49">
+        <v>1881.67</v>
+      </c>
+      <c r="E49">
+        <v>1451.9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>896.13</v>
+      </c>
+      <c r="K49">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>3333.57</v>
+      </c>
+      <c r="D50">
+        <v>2156.57</v>
+      </c>
+      <c r="E50">
+        <v>1177.01</v>
+      </c>
+      <c r="F50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50">
+        <v>1.74</v>
+      </c>
+      <c r="H50">
+        <v>31.33</v>
+      </c>
+      <c r="I50">
+        <v>994.53</v>
+      </c>
+      <c r="J50">
+        <v>936.26</v>
+      </c>
+      <c r="K50">
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51">
+        <v>2493.59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -560,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1673,6 +1673,46 @@
         <v>62</v>
       </c>
     </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>3333.57</v>
+      </c>
+      <c r="D52">
+        <v>2156.57</v>
+      </c>
+      <c r="E52">
+        <v>1177.01</v>
+      </c>
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52">
+        <v>966.35</v>
+      </c>
+      <c r="K52">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>2493.59</v>
+      </c>
+      <c r="F53" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>17 Jan -- 23 Jan 2021</t>
+  </si>
+  <si>
+    <t>24 Jan -- 30 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>2.29</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>5.86</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>58.29</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>347.43</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1154.86</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>2087.86</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2148.43</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>2202.86</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1933.57</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>1753.71</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>1426.86</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1220.57</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>946.14</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>873.71</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>744.29</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>602.14</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>565.86</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>524.14</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>748.86</v>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>786.29</v>
@@ -1007,7 +1013,7 @@
         <v>264.63</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>922</v>
@@ -1027,7 +1033,7 @@
         <v>77.56</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>1140.43</v>
@@ -1047,7 +1053,7 @@
         <v>351.83</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>1038.43</v>
@@ -1067,7 +1073,7 @@
         <v>201.64</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>1007.43</v>
@@ -1087,7 +1093,7 @@
         <v>206.55</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>973.4299999999999</v>
@@ -1107,7 +1113,7 @@
         <v>106.13</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>894.5700000000001</v>
@@ -1127,7 +1133,7 @@
         <v>66.61</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>846.4299999999999</v>
@@ -1147,7 +1153,7 @@
         <v>124.99</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>733.14</v>
@@ -1167,7 +1173,7 @@
         <v>173.39</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>797.86</v>
@@ -1187,7 +1193,7 @@
         <v>65.98</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>766.4299999999999</v>
@@ -1207,7 +1213,7 @@
         <v>155.57</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>702.14</v>
@@ -1227,7 +1233,7 @@
         <v>228.34</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>714.29</v>
@@ -1247,7 +1253,7 @@
         <v>204.05</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>717.4299999999999</v>
@@ -1267,7 +1273,7 @@
         <v>290</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>821.5700000000001</v>
@@ -1287,7 +1293,7 @@
         <v>97.14</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>819</v>
@@ -1307,7 +1313,7 @@
         <v>160.73</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>994.86</v>
@@ -1327,7 +1333,7 @@
         <v>265.14</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>1087.29</v>
@@ -1347,7 +1353,7 @@
         <v>249.48</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>1466.29</v>
@@ -1367,7 +1373,7 @@
         <v>516.42</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1375,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>1447.14</v>
@@ -1387,7 +1393,7 @@
         <v>507.53</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1395,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>2150.29</v>
@@ -1407,7 +1413,7 @@
         <v>1359.26</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1415,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>2383.14</v>
@@ -1427,7 +1433,7 @@
         <v>1401.69</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1435,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>2607.86</v>
@@ -1447,7 +1453,7 @@
         <v>1334.72</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1455,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>2250</v>
@@ -1467,7 +1473,7 @@
         <v>510.51</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J44">
         <v>510.51</v>
@@ -1481,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>2604.14</v>
@@ -1493,7 +1499,7 @@
         <v>577.22</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J45">
         <v>543.87</v>
@@ -1507,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>2604.14</v>
@@ -1519,7 +1525,7 @@
         <v>635.52</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G46">
         <v>9.800000000000001</v>
@@ -1542,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>3174.14</v>
@@ -1554,7 +1560,7 @@
         <v>1154.07</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J47">
         <v>719.33</v>
@@ -1568,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>3174.14</v>
@@ -1580,7 +1586,7 @@
         <v>1047.58</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G48">
         <v>4.82</v>
@@ -1603,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1615,7 +1621,7 @@
         <v>1451.9</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J49">
         <v>896.13</v>
@@ -1629,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>3333.57</v>
@@ -1641,7 +1647,7 @@
         <v>1177.01</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G50">
         <v>1.74</v>
@@ -1664,13 +1670,13 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51">
         <v>2493.59</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1678,7 +1684,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>3333.57</v>
@@ -1690,7 +1696,7 @@
         <v>1177.01</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J52">
         <v>966.35</v>
@@ -1704,13 +1710,50 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53">
         <v>2493.59</v>
       </c>
       <c r="F53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
         <v>62</v>
+      </c>
+      <c r="D54">
+        <v>2137.15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54">
+        <v>1.14</v>
+      </c>
+      <c r="H54">
+        <v>37.38</v>
+      </c>
+      <c r="I54">
+        <v>1246.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55">
+        <v>2557.19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2.29</v>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>5.86</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>58.29</v>
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>347.43</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1154.86</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2087.86</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>2148.43</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>2202.86</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1933.57</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1753.71</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>1426.86</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1220.57</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>946.14</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>873.71</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>744.29</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>602.14</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>565.86</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>524.14</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>748.86</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>786.29</v>
@@ -1013,7 +1019,7 @@
         <v>264.63</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>922</v>
@@ -1033,7 +1039,7 @@
         <v>77.56</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>1140.43</v>
@@ -1053,7 +1059,7 @@
         <v>351.83</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>1038.43</v>
@@ -1073,7 +1079,7 @@
         <v>201.64</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>1007.43</v>
@@ -1093,7 +1099,7 @@
         <v>206.55</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>973.4299999999999</v>
@@ -1113,7 +1119,7 @@
         <v>106.13</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>894.5700000000001</v>
@@ -1133,7 +1139,7 @@
         <v>66.61</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>846.4299999999999</v>
@@ -1153,7 +1159,7 @@
         <v>124.99</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>733.14</v>
@@ -1173,7 +1179,7 @@
         <v>173.39</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>797.86</v>
@@ -1193,7 +1199,7 @@
         <v>65.98</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>766.4299999999999</v>
@@ -1213,7 +1219,7 @@
         <v>155.57</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>702.14</v>
@@ -1233,7 +1239,7 @@
         <v>228.34</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>714.29</v>
@@ -1253,7 +1259,7 @@
         <v>204.05</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>717.4299999999999</v>
@@ -1273,7 +1279,7 @@
         <v>290</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>821.5700000000001</v>
@@ -1293,7 +1299,7 @@
         <v>97.14</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>819</v>
@@ -1313,7 +1319,7 @@
         <v>160.73</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>994.86</v>
@@ -1333,7 +1339,7 @@
         <v>265.14</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>1087.29</v>
@@ -1353,7 +1359,7 @@
         <v>249.48</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1361,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>1466.29</v>
@@ -1373,7 +1379,7 @@
         <v>516.42</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1381,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>1447.14</v>
@@ -1393,7 +1399,7 @@
         <v>507.53</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>2150.29</v>
@@ -1413,7 +1419,7 @@
         <v>1359.26</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1421,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>2383.14</v>
@@ -1433,7 +1439,7 @@
         <v>1401.69</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1441,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>2607.86</v>
@@ -1453,7 +1459,7 @@
         <v>1334.72</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1461,7 +1467,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>2250</v>
@@ -1473,7 +1479,7 @@
         <v>510.51</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J44">
         <v>510.51</v>
@@ -1487,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>2604.14</v>
@@ -1499,7 +1505,7 @@
         <v>577.22</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J45">
         <v>543.87</v>
@@ -1513,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>2604.14</v>
@@ -1525,7 +1531,7 @@
         <v>635.52</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G46">
         <v>9.800000000000001</v>
@@ -1548,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>3174.14</v>
@@ -1560,7 +1566,7 @@
         <v>1154.07</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J47">
         <v>719.33</v>
@@ -1574,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>3174.14</v>
@@ -1586,7 +1592,7 @@
         <v>1047.58</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G48">
         <v>4.82</v>
@@ -1609,7 +1615,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1621,7 +1627,7 @@
         <v>1451.9</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J49">
         <v>896.13</v>
@@ -1635,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50">
         <v>3333.57</v>
@@ -1647,7 +1653,7 @@
         <v>1177.01</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G50">
         <v>1.74</v>
@@ -1670,13 +1676,25 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>3085.57</v>
       </c>
       <c r="D51">
         <v>2493.59</v>
       </c>
+      <c r="E51">
+        <v>591.98</v>
+      </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J51">
+        <v>893.22</v>
+      </c>
+      <c r="K51">
+        <v>29.58</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1684,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>3333.57</v>
@@ -1696,13 +1714,13 @@
         <v>1177.01</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J52">
-        <v>966.35</v>
+        <v>924.75</v>
       </c>
       <c r="K52">
-        <v>31.6</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1710,13 +1728,25 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C53">
+        <v>3085.57</v>
       </c>
       <c r="D53">
         <v>2493.59</v>
       </c>
+      <c r="E53">
+        <v>591.98</v>
+      </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J53">
+        <v>891.48</v>
+      </c>
+      <c r="K53">
+        <v>29.12</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1724,13 +1754,19 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>3085.57</v>
       </c>
       <c r="D54">
         <v>2137.15</v>
       </c>
+      <c r="E54">
+        <v>948.42</v>
+      </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G54">
         <v>1.14</v>
@@ -1740,6 +1776,12 @@
       </c>
       <c r="I54">
         <v>1246.03</v>
+      </c>
+      <c r="J54">
+        <v>896.65</v>
+      </c>
+      <c r="K54">
+        <v>29.26</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1747,13 +1789,126 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>3141</v>
       </c>
       <c r="D55">
         <v>2557.19</v>
       </c>
+      <c r="E55">
+        <v>583.8099999999999</v>
+      </c>
       <c r="F55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55">
+        <v>870.58</v>
+      </c>
+      <c r="K55">
+        <v>28.37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56">
+        <v>3085.57</v>
+      </c>
+      <c r="D56">
+        <v>2137.15</v>
+      </c>
+      <c r="E56">
+        <v>948.42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>66</v>
+      </c>
+      <c r="J56">
+        <v>876.5700000000001</v>
+      </c>
+      <c r="K56">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
         <v>64</v>
+      </c>
+      <c r="C57">
+        <v>3141</v>
+      </c>
+      <c r="D57">
+        <v>2557.19</v>
+      </c>
+      <c r="E57">
+        <v>583.8099999999999</v>
+      </c>
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57">
+        <v>855.66</v>
+      </c>
+      <c r="K57">
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>3141</v>
+      </c>
+      <c r="D58">
+        <v>2551.8</v>
+      </c>
+      <c r="E58">
+        <v>589.2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58">
+        <v>2.33</v>
+      </c>
+      <c r="H58">
+        <v>36.35</v>
+      </c>
+      <c r="I58">
+        <v>1121.51</v>
+      </c>
+      <c r="J58">
+        <v>837.9</v>
+      </c>
+      <c r="K58">
+        <v>27.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59">
+        <v>2424.63</v>
+      </c>
+      <c r="F59" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2.29</v>
@@ -630,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>5.86</v>
@@ -659,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>58.29</v>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>347.43</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1154.86</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>2087.86</v>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>2148.43</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>2202.86</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>1933.57</v>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>1753.71</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>1426.86</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>1220.57</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>946.14</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>873.71</v>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>744.29</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>602.14</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>565.86</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>524.14</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>748.86</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>786.29</v>
@@ -1019,7 +1025,7 @@
         <v>264.63</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>922</v>
@@ -1039,7 +1045,7 @@
         <v>77.56</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>1140.43</v>
@@ -1059,7 +1065,7 @@
         <v>351.83</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>1038.43</v>
@@ -1079,7 +1085,7 @@
         <v>201.64</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>1007.43</v>
@@ -1099,7 +1105,7 @@
         <v>206.55</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>973.4299999999999</v>
@@ -1119,7 +1125,7 @@
         <v>106.13</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>894.5700000000001</v>
@@ -1139,7 +1145,7 @@
         <v>66.61</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>846.4299999999999</v>
@@ -1159,7 +1165,7 @@
         <v>124.99</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>733.14</v>
@@ -1179,7 +1185,7 @@
         <v>173.39</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>797.86</v>
@@ -1199,7 +1205,7 @@
         <v>65.98</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>766.4299999999999</v>
@@ -1219,7 +1225,7 @@
         <v>155.57</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>702.14</v>
@@ -1239,7 +1245,7 @@
         <v>228.34</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>714.29</v>
@@ -1259,7 +1265,7 @@
         <v>204.05</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>717.4299999999999</v>
@@ -1279,7 +1285,7 @@
         <v>290</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>821.5700000000001</v>
@@ -1299,7 +1305,7 @@
         <v>97.14</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1307,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>819</v>
@@ -1319,7 +1325,7 @@
         <v>160.73</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1327,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>994.86</v>
@@ -1339,7 +1345,7 @@
         <v>265.14</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1347,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>1087.29</v>
@@ -1359,7 +1365,7 @@
         <v>249.48</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1367,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>1466.29</v>
@@ -1379,7 +1385,7 @@
         <v>516.42</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1387,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>1447.14</v>
@@ -1399,7 +1405,7 @@
         <v>507.53</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1407,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>2150.29</v>
@@ -1419,7 +1425,7 @@
         <v>1359.26</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1427,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>2383.14</v>
@@ -1439,7 +1445,7 @@
         <v>1401.69</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1447,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>2607.86</v>
@@ -1459,7 +1465,7 @@
         <v>1334.72</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1467,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>2250</v>
@@ -1479,7 +1485,7 @@
         <v>510.51</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J44">
         <v>510.51</v>
@@ -1493,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>2604.14</v>
@@ -1505,7 +1511,7 @@
         <v>577.22</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J45">
         <v>543.87</v>
@@ -1519,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>2604.14</v>
@@ -1531,7 +1537,7 @@
         <v>635.52</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G46">
         <v>9.800000000000001</v>
@@ -1554,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>3174.14</v>
@@ -1566,7 +1572,7 @@
         <v>1154.07</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J47">
         <v>719.33</v>
@@ -1580,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>3174.14</v>
@@ -1592,7 +1598,7 @@
         <v>1047.58</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>4.82</v>
@@ -1615,7 +1621,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1627,7 +1633,7 @@
         <v>1451.9</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J49">
         <v>896.13</v>
@@ -1641,7 +1647,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50">
         <v>3333.57</v>
@@ -1653,7 +1659,7 @@
         <v>1177.01</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G50">
         <v>1.74</v>
@@ -1676,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>3085.57</v>
@@ -1688,7 +1694,7 @@
         <v>591.98</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J51">
         <v>893.22</v>
@@ -1702,7 +1708,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>3333.57</v>
@@ -1714,7 +1720,7 @@
         <v>1177.01</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J52">
         <v>924.75</v>
@@ -1728,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>3085.57</v>
@@ -1740,7 +1746,7 @@
         <v>591.98</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J53">
         <v>891.48</v>
@@ -1754,7 +1760,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>3085.57</v>
@@ -1766,7 +1772,7 @@
         <v>948.42</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>1.14</v>
@@ -1789,25 +1795,25 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D55">
         <v>2557.19</v>
       </c>
       <c r="E55">
-        <v>583.8099999999999</v>
+        <v>593.38</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J55">
-        <v>870.58</v>
+        <v>871.38</v>
       </c>
       <c r="K55">
-        <v>28.37</v>
+        <v>28.39</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1815,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>3085.57</v>
@@ -1827,13 +1833,13 @@
         <v>948.42</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J56">
-        <v>876.5700000000001</v>
+        <v>877.3099999999999</v>
       </c>
       <c r="K56">
-        <v>28.56</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1841,25 +1847,25 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D57">
         <v>2557.19</v>
       </c>
       <c r="E57">
-        <v>583.8099999999999</v>
+        <v>593.38</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J57">
-        <v>855.66</v>
+        <v>857.03</v>
       </c>
       <c r="K57">
-        <v>27.84</v>
+        <v>27.88</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1867,19 +1873,19 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D58">
         <v>2551.8</v>
       </c>
       <c r="E58">
-        <v>589.2</v>
+        <v>598.77</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G58">
         <v>2.33</v>
@@ -1891,10 +1897,10 @@
         <v>1121.51</v>
       </c>
       <c r="J58">
-        <v>837.9</v>
+        <v>839.8099999999999</v>
       </c>
       <c r="K58">
-        <v>27.24</v>
+        <v>27.29</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1902,13 +1908,96 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D59">
         <v>2424.63</v>
       </c>
       <c r="F59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>3150.57</v>
+      </c>
+      <c r="D60">
+        <v>2551.92</v>
+      </c>
+      <c r="E60">
+        <v>598.65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60">
+        <v>2.34</v>
+      </c>
+      <c r="I60">
+        <v>1121.48</v>
+      </c>
+      <c r="J60">
+        <v>824.74</v>
+      </c>
+      <c r="K60">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
         <v>66</v>
+      </c>
+      <c r="D61">
+        <v>2424.63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>2424.63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62">
+        <v>33.98</v>
+      </c>
+      <c r="H62">
+        <v>25.12</v>
+      </c>
+      <c r="I62">
+        <v>791.29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63">
+        <v>1964.01</v>
+      </c>
+      <c r="F63" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -578,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>2.29</v>
@@ -636,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -653,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>5.86</v>
@@ -665,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>58.29</v>
@@ -685,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>347.43</v>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1154.86</v>
@@ -725,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>2087.86</v>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>2148.43</v>
@@ -765,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>2202.86</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>1933.57</v>
@@ -805,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>1753.71</v>
@@ -825,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>1426.86</v>
@@ -845,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>1220.57</v>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>946.14</v>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>873.71</v>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>744.29</v>
@@ -925,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>602.14</v>
@@ -945,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>565.86</v>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>524.14</v>
@@ -985,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>748.86</v>
@@ -1005,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>786.29</v>
@@ -1025,7 +1031,7 @@
         <v>264.63</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>922</v>
@@ -1045,7 +1051,7 @@
         <v>77.56</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>1140.43</v>
@@ -1065,7 +1071,7 @@
         <v>351.83</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>1038.43</v>
@@ -1085,7 +1091,7 @@
         <v>201.64</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>1007.43</v>
@@ -1105,7 +1111,7 @@
         <v>206.55</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>973.4299999999999</v>
@@ -1125,7 +1131,7 @@
         <v>106.13</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>894.5700000000001</v>
@@ -1145,7 +1151,7 @@
         <v>66.61</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>846.4299999999999</v>
@@ -1165,7 +1171,7 @@
         <v>124.99</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>733.14</v>
@@ -1185,7 +1191,7 @@
         <v>173.39</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>797.86</v>
@@ -1205,7 +1211,7 @@
         <v>65.98</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>766.4299999999999</v>
@@ -1225,7 +1231,7 @@
         <v>155.57</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>702.14</v>
@@ -1245,7 +1251,7 @@
         <v>228.34</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>714.29</v>
@@ -1265,7 +1271,7 @@
         <v>204.05</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>717.4299999999999</v>
@@ -1285,7 +1291,7 @@
         <v>290</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>821.5700000000001</v>
@@ -1305,7 +1311,7 @@
         <v>97.14</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>819</v>
@@ -1325,7 +1331,7 @@
         <v>160.73</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>994.86</v>
@@ -1345,7 +1351,7 @@
         <v>265.14</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>1087.29</v>
@@ -1365,7 +1371,7 @@
         <v>249.48</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>1466.29</v>
@@ -1385,7 +1391,7 @@
         <v>516.42</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>1447.14</v>
@@ -1405,7 +1411,7 @@
         <v>507.53</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1413,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>2150.29</v>
@@ -1425,7 +1431,7 @@
         <v>1359.26</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1433,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>2383.14</v>
@@ -1445,7 +1451,7 @@
         <v>1401.69</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1453,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>2607.86</v>
@@ -1465,7 +1471,7 @@
         <v>1334.72</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1473,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>2250</v>
@@ -1485,7 +1491,7 @@
         <v>510.51</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J44">
         <v>510.51</v>
@@ -1499,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>2604.14</v>
@@ -1511,7 +1517,7 @@
         <v>577.22</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J45">
         <v>543.87</v>
@@ -1525,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>2604.14</v>
@@ -1537,7 +1543,7 @@
         <v>635.52</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G46">
         <v>9.800000000000001</v>
@@ -1560,7 +1566,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>3174.14</v>
@@ -1572,7 +1578,7 @@
         <v>1154.07</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J47">
         <v>719.33</v>
@@ -1586,7 +1592,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>3174.14</v>
@@ -1598,7 +1604,7 @@
         <v>1047.58</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>4.82</v>
@@ -1621,7 +1627,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1633,7 +1639,7 @@
         <v>1451.9</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J49">
         <v>896.13</v>
@@ -1647,7 +1653,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>3333.57</v>
@@ -1659,7 +1665,7 @@
         <v>1177.01</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>1.74</v>
@@ -1682,7 +1688,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>3085.57</v>
@@ -1694,7 +1700,7 @@
         <v>591.98</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J51">
         <v>893.22</v>
@@ -1708,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>3333.57</v>
@@ -1720,7 +1726,7 @@
         <v>1177.01</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J52">
         <v>924.75</v>
@@ -1734,7 +1740,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53">
         <v>3085.57</v>
@@ -1746,7 +1752,7 @@
         <v>591.98</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J53">
         <v>891.48</v>
@@ -1760,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>3085.57</v>
@@ -1772,7 +1778,7 @@
         <v>948.42</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>1.14</v>
@@ -1795,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <v>3150.57</v>
@@ -1807,7 +1813,7 @@
         <v>593.38</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J55">
         <v>871.38</v>
@@ -1821,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <v>3085.57</v>
@@ -1833,7 +1839,7 @@
         <v>948.42</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J56">
         <v>877.3099999999999</v>
@@ -1847,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57">
         <v>3150.57</v>
@@ -1859,7 +1865,7 @@
         <v>593.38</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J57">
         <v>857.03</v>
@@ -1873,7 +1879,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>3150.57</v>
@@ -1885,7 +1891,7 @@
         <v>598.77</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G58">
         <v>2.33</v>
@@ -1908,13 +1914,25 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="C59">
+        <v>2986.71</v>
       </c>
       <c r="D59">
         <v>2424.63</v>
       </c>
+      <c r="E59">
+        <v>562.08</v>
+      </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J59">
+        <v>822.45</v>
+      </c>
+      <c r="K59">
+        <v>26.76</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1922,7 +1940,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>3150.57</v>
@@ -1934,7 +1952,7 @@
         <v>598.65</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G60">
         <v>2.34</v>
@@ -1943,10 +1961,10 @@
         <v>1121.48</v>
       </c>
       <c r="J60">
-        <v>824.74</v>
+        <v>809.29</v>
       </c>
       <c r="K60">
-        <v>26.77</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1954,13 +1972,25 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="C61">
+        <v>2986.71</v>
       </c>
       <c r="D61">
         <v>2424.63</v>
       </c>
+      <c r="E61">
+        <v>562.08</v>
+      </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J61">
+        <v>795.55</v>
+      </c>
+      <c r="K61">
+        <v>25.89</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1968,13 +1998,19 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="C62">
+        <v>2986.71</v>
       </c>
       <c r="D62">
         <v>2424.63</v>
       </c>
+      <c r="E62">
+        <v>562.08</v>
+      </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G62">
         <v>33.98</v>
@@ -1984,6 +2020,12 @@
       </c>
       <c r="I62">
         <v>791.29</v>
+      </c>
+      <c r="J62">
+        <v>783.27</v>
+      </c>
+      <c r="K62">
+        <v>25.51</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1991,13 +2033,138 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C63">
+        <v>2487.29</v>
       </c>
       <c r="D63">
         <v>1964.01</v>
       </c>
+      <c r="E63">
+        <v>523.28</v>
+      </c>
       <c r="F63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J63">
+        <v>770.27</v>
+      </c>
+      <c r="K63">
+        <v>25.29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>2986.71</v>
+      </c>
+      <c r="D64">
+        <v>2424.63</v>
+      </c>
+      <c r="E64">
+        <v>562.08</v>
+      </c>
+      <c r="F64" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64">
+        <v>760.35</v>
+      </c>
+      <c r="K64">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
         <v>68</v>
+      </c>
+      <c r="C65">
+        <v>2487.29</v>
+      </c>
+      <c r="D65">
+        <v>1964.01</v>
+      </c>
+      <c r="E65">
+        <v>523.28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>70</v>
+      </c>
+      <c r="J65">
+        <v>749.58</v>
+      </c>
+      <c r="K65">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66">
+        <v>2487.29</v>
+      </c>
+      <c r="D66">
+        <v>2830.11</v>
+      </c>
+      <c r="E66">
+        <v>342.82</v>
+      </c>
+      <c r="F66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66">
+        <v>2.18</v>
+      </c>
+      <c r="H66">
+        <v>22.73</v>
+      </c>
+      <c r="I66">
+        <v>689.87</v>
+      </c>
+      <c r="J66">
+        <v>731.89</v>
+      </c>
+      <c r="K66">
+        <v>24.32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67">
+        <v>1906.71</v>
+      </c>
+      <c r="D67">
+        <v>2917.69</v>
+      </c>
+      <c r="E67">
+        <v>1010.98</v>
+      </c>
+      <c r="F67" t="s">
+        <v>70</v>
+      </c>
+      <c r="J67">
+        <v>743.52</v>
+      </c>
+      <c r="K67">
+        <v>25.52</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-06</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -224,6 +227,12 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -584,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2.29</v>
@@ -642,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -659,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>5.86</v>
@@ -671,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -679,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>58.29</v>
@@ -691,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -699,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>347.43</v>
@@ -711,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -719,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1154.86</v>
@@ -731,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -739,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>2087.86</v>
@@ -751,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -759,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>2148.43</v>
@@ -771,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -779,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>2202.86</v>
@@ -791,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -799,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>1933.57</v>
@@ -811,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -819,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>1753.71</v>
@@ -831,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -839,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>1426.86</v>
@@ -851,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>1220.57</v>
@@ -871,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -879,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>946.14</v>
@@ -891,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>873.71</v>
@@ -911,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -919,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>744.29</v>
@@ -931,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -939,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>602.14</v>
@@ -951,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -959,7 +968,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>565.86</v>
@@ -971,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -979,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>524.14</v>
@@ -991,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -999,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>748.86</v>
@@ -1011,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1019,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>786.29</v>
@@ -1031,7 +1040,7 @@
         <v>264.63</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1039,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>922</v>
@@ -1051,7 +1060,7 @@
         <v>77.56</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1059,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>1140.43</v>
@@ -1071,7 +1080,7 @@
         <v>351.83</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1079,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>1038.43</v>
@@ -1091,7 +1100,7 @@
         <v>201.64</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1099,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>1007.43</v>
@@ -1111,7 +1120,7 @@
         <v>206.55</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1119,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>973.4299999999999</v>
@@ -1131,7 +1140,7 @@
         <v>106.13</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1139,7 +1148,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>894.5700000000001</v>
@@ -1151,7 +1160,7 @@
         <v>66.61</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1159,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>846.4299999999999</v>
@@ -1171,7 +1180,7 @@
         <v>124.99</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1179,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>733.14</v>
@@ -1191,7 +1200,7 @@
         <v>173.39</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1199,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>797.86</v>
@@ -1211,7 +1220,7 @@
         <v>65.98</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1219,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>766.4299999999999</v>
@@ -1231,7 +1240,7 @@
         <v>155.57</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1239,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>702.14</v>
@@ -1251,7 +1260,7 @@
         <v>228.34</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1259,7 +1268,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>714.29</v>
@@ -1271,7 +1280,7 @@
         <v>204.05</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1279,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>717.4299999999999</v>
@@ -1291,7 +1300,7 @@
         <v>290</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1299,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>821.5700000000001</v>
@@ -1311,7 +1320,7 @@
         <v>97.14</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1319,7 +1328,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>819</v>
@@ -1331,7 +1340,7 @@
         <v>160.73</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1339,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>994.86</v>
@@ -1351,7 +1360,7 @@
         <v>265.14</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1359,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>1087.29</v>
@@ -1371,7 +1380,7 @@
         <v>249.48</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1379,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>1466.29</v>
@@ -1391,7 +1400,7 @@
         <v>516.42</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1399,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>1447.14</v>
@@ -1411,7 +1420,7 @@
         <v>507.53</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1419,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>2150.29</v>
@@ -1431,7 +1440,7 @@
         <v>1359.26</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1439,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>2383.14</v>
@@ -1451,7 +1460,7 @@
         <v>1401.69</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1459,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>2607.86</v>
@@ -1471,7 +1480,7 @@
         <v>1334.72</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1479,7 +1488,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>2250</v>
@@ -1491,7 +1500,7 @@
         <v>510.51</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J44">
         <v>510.51</v>
@@ -1505,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>2604.14</v>
@@ -1517,7 +1526,7 @@
         <v>577.22</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J45">
         <v>543.87</v>
@@ -1531,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>2604.14</v>
@@ -1543,7 +1552,7 @@
         <v>635.52</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G46">
         <v>9.800000000000001</v>
@@ -1566,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>3174.14</v>
@@ -1578,7 +1587,7 @@
         <v>1154.07</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J47">
         <v>719.33</v>
@@ -1592,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>3174.14</v>
@@ -1604,7 +1613,7 @@
         <v>1047.58</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G48">
         <v>4.82</v>
@@ -1627,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1639,7 +1648,7 @@
         <v>1451.9</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J49">
         <v>896.13</v>
@@ -1653,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>3333.57</v>
@@ -1665,7 +1674,7 @@
         <v>1177.01</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G50">
         <v>1.74</v>
@@ -1688,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>3085.57</v>
@@ -1700,7 +1709,7 @@
         <v>591.98</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J51">
         <v>893.22</v>
@@ -1714,7 +1723,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52">
         <v>3333.57</v>
@@ -1726,7 +1735,7 @@
         <v>1177.01</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J52">
         <v>924.75</v>
@@ -1740,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53">
         <v>3085.57</v>
@@ -1752,7 +1761,7 @@
         <v>591.98</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J53">
         <v>891.48</v>
@@ -1766,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54">
         <v>3085.57</v>
@@ -1778,7 +1787,7 @@
         <v>948.42</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G54">
         <v>1.14</v>
@@ -1801,7 +1810,7 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55">
         <v>3150.57</v>
@@ -1813,7 +1822,7 @@
         <v>593.38</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J55">
         <v>871.38</v>
@@ -1827,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56">
         <v>3085.57</v>
@@ -1839,7 +1848,7 @@
         <v>948.42</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J56">
         <v>877.3099999999999</v>
@@ -1853,7 +1862,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57">
         <v>3150.57</v>
@@ -1865,7 +1874,7 @@
         <v>593.38</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J57">
         <v>857.03</v>
@@ -1879,7 +1888,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C58">
         <v>3150.57</v>
@@ -1891,7 +1900,7 @@
         <v>598.77</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G58">
         <v>2.33</v>
@@ -1914,7 +1923,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C59">
         <v>2986.71</v>
@@ -1926,7 +1935,7 @@
         <v>562.08</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J59">
         <v>822.45</v>
@@ -1940,7 +1949,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60">
         <v>3150.57</v>
@@ -1952,7 +1961,7 @@
         <v>598.65</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G60">
         <v>2.34</v>
@@ -1972,7 +1981,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>2986.71</v>
@@ -1984,7 +1993,7 @@
         <v>562.08</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J61">
         <v>795.55</v>
@@ -1998,7 +2007,7 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62">
         <v>2986.71</v>
@@ -2010,7 +2019,7 @@
         <v>562.08</v>
       </c>
       <c r="F62" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G62">
         <v>33.98</v>
@@ -2033,7 +2042,7 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C63">
         <v>2487.29</v>
@@ -2045,7 +2054,7 @@
         <v>523.28</v>
       </c>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J63">
         <v>770.27</v>
@@ -2059,7 +2068,7 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64">
         <v>2986.71</v>
@@ -2071,7 +2080,7 @@
         <v>562.08</v>
       </c>
       <c r="F64" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J64">
         <v>760.35</v>
@@ -2085,7 +2094,7 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <v>2487.29</v>
@@ -2097,7 +2106,7 @@
         <v>523.28</v>
       </c>
       <c r="F65" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J65">
         <v>749.58</v>
@@ -2111,7 +2120,7 @@
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>2487.29</v>
@@ -2123,7 +2132,7 @@
         <v>342.82</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G66">
         <v>2.18</v>
@@ -2146,7 +2155,7 @@
         <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>1906.71</v>
@@ -2158,13 +2167,50 @@
         <v>1010.98</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J67">
         <v>743.52</v>
       </c>
       <c r="K67">
         <v>25.52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68">
+        <v>2749.77</v>
+      </c>
+      <c r="F68" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68">
+        <v>0.78</v>
+      </c>
+      <c r="H68">
+        <v>53.89</v>
+      </c>
+      <c r="I68">
+        <v>997.24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69">
+        <v>1799.33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
